--- a/biology/Mycologie/Boletus_junquilleus/Boletus_junquilleus.xlsx
+++ b/biology/Mycologie/Boletus_junquilleus/Boletus_junquilleus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Neoboletus praestigiator var. pseudosulphureus, Neoboletus luridiformis var. pseudosulphureus, Neoboletus junquilleus
 Neoboletus praestigiator var. pseudosulphureus ou encore Neoboletus luridiformis var. pseudosulphureus, autrefois Neoboletus junquilleus, Sutorius junquilleus ou encore Boletus junquilleus, le Bolet jonquille, est une forme d'espèce de champignons (Fungi) basidiomycètes du genre Neoboletus dans la famille des Boletaceae. Auparavant décrit comme une espèce à part entière, il est aujourd'hui considéré comme une forme entièrement xanthoïde (jaune) du Bolet à pied rouge (Neoboletus erythropus). Partageant la même comestibilité du Bolet à pied rouge, il est caractérisé par sa teinte jaune uniforme. C'est une espèce à protéger.
@@ -514,11 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nom binomial accepté
-Neoboletus praestigiator var. pseudosulphureus (Kallenb.) Klofac[1]
-Neoboletus luridiformis var. pseudosulphureus (Kallenb.) A. Urb. &amp; Klofac[2]
-Synonymes
-Boletus luridiformis var. junquilleus (Quél.) Knudsen (synonyme)
+          <t>Nom binomial accepté</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Neoboletus praestigiator var. pseudosulphureus (Kallenb.) Klofac
+Neoboletus luridiformis var. pseudosulphureus (Kallenb.) A. Urb. &amp; Klofac</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Boletus_junquilleus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_junquilleus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Boletus luridiformis var. junquilleus (Quél.) Knudsen (synonyme)
 Boletus discolor (Quél.) Boud. (synonyme)
 Boletus erythropus discolor (Quél.) Dermek, Kuthan &amp; Singer 1976 (synonyme)
 Boletus luridiformis discolor (Quél.) Rauschert 1987 (synonyme)
@@ -526,31 +577,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Boletus_junquilleus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Boletus_junquilleus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Neoboletus praestigiator var. pseudosulphureus, le Bolet jonquille, sont les suivantes :
 Le Bolet jonquille possède notamment un beau chapeau jaune citron, qui devient jaune d’or et puis parfois est parsemé de taches couleur rouille orangé en devenant plus vieux. 
@@ -561,31 +614,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Boletus_junquilleus</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Boletus_junquilleus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce rare pousse sous les feuillus, principalement sous les hêtres et les chênes, plutôt sur sol non calcaire.
 </t>
